--- a/output/Output-Avaliacao-VPE.xlsx
+++ b/output/Output-Avaliacao-VPE.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -132,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -497,7 +498,7 @@
   </sheetPr>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -655,17 +656,17 @@
           <t>O VPE, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="Z2" s="6" t="inlineStr">
         <is>
           <t>Em tarefas de grupo, o VPE é capaz de comunicar com os seus membros de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>O VPE é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
         </is>
       </c>
-      <c r="AB2" s="5" t="inlineStr">
+      <c r="AB2" s="6" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
@@ -747,13 +748,13 @@
       <c r="Y3" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Z3" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="5" t="inlineStr">
+      <c r="Z3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -835,13 +836,13 @@
       <c r="Y4" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Z4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="5" t="inlineStr">
+      <c r="Z4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -923,13 +924,13 @@
       <c r="Y5" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Z5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="5" t="inlineStr">
+      <c r="Z5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -1011,13 +1012,13 @@
       <c r="Y6" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Z6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="5" t="inlineStr">
+      <c r="Z6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="6" t="inlineStr">
         <is>
           <t>(espero continuar a demonstrar resultados, a melhorar sempre em prol da EPIC Júnior)</t>
         </is>
@@ -1099,13 +1100,13 @@
       <c r="Y7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Z7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="5" t="inlineStr">
+      <c r="Z7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -1187,13 +1188,13 @@
       <c r="Y8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Z8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="5" t="inlineStr">
+      <c r="Z8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="6" t="inlineStr">
         <is>
           <t>De facto, estou muito satisfeito com o trabalho do Pedro e a minha avaliação transparece esse mesmo reconhecimento. Na questão "O VPE participa regularmente em reuniões gerais e reuniões de departamento.” assumi que fossem reuniões de direção.</t>
         </is>
@@ -1385,6 +1386,6 @@
     <mergeCell ref="T2"/>
     <mergeCell ref="S6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>